--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sulie\OneDrive\Documents\Cours_B1\infra-si\infra_si\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07CAC5B-4E77-46E5-AB33-6C090ED843A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B7B9F6-E0EE-4797-8504-D3AA50070D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Nombres élèves</t>
   </si>
@@ -132,13 +132,58 @@
   </si>
   <si>
     <t>Totale</t>
+  </si>
+  <si>
+    <t>Réseaux:</t>
+  </si>
+  <si>
+    <t>masque</t>
+  </si>
+  <si>
+    <t>255,255,255,0</t>
+  </si>
+  <si>
+    <t>192.168.0.0/24</t>
+  </si>
+  <si>
+    <t>192.168.1.0/25</t>
+  </si>
+  <si>
+    <t>192.168.2.0/26</t>
+  </si>
+  <si>
+    <t>192.168.3.0/28</t>
+  </si>
+  <si>
+    <t>192.168.4.0/29</t>
+  </si>
+  <si>
+    <t>192.168.5.0/28</t>
+  </si>
+  <si>
+    <t>192.168.6.0/30</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +205,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,8 +302,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -259,8 +317,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="20 % - Accent4" xfId="6" builtinId="42"/>
     <cellStyle name="40 % - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="40 % - Accent5" xfId="8" builtinId="47"/>
@@ -272,6 +331,7 @@
     <cellStyle name="Accent5" xfId="7" builtinId="45"/>
     <cellStyle name="Accent6" xfId="10" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="11" xr:uid="{B8E1A907-DDAA-496B-A529-E576B7A28404}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,22 +642,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="3" max="3" width="41.109375" customWidth="1"/>
     <col min="4" max="4" width="34.21875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -972,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>B5+B6+B7+B9+B10+B11+B12+B13+B14+B15+B16</f>
         <v>50</v>
@@ -982,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1004,8 +1066,11 @@
       <c r="H18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1036,13 +1101,62 @@
         <f>G19+F19+E19+D19+C19++B19</f>
         <v>212</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>